--- a/backend/modules/import/templates/template-nilai.xlsx
+++ b/backend/modules/import/templates/template-nilai.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\iabee\backend\modules\import\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1EA0AD0-FAE1-4037-AB40-8CBF7416041F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EAE0FE8-9039-4081-9F03-7DD0621BE755}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7995" xr2:uid="{8D77FA8A-F331-40F0-9C72-F1E9CF6A7C60}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{8D77FA8A-F331-40F0-9C72-F1E9CF6A7C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>No</t>
   </si>
@@ -40,21 +40,6 @@
   </si>
   <si>
     <t>Mahasiswa</t>
-  </si>
-  <si>
-    <t>CPMK1</t>
-  </si>
-  <si>
-    <t>CPMK2</t>
-  </si>
-  <si>
-    <t>CPMK3</t>
-  </si>
-  <si>
-    <t>CPMK4</t>
-  </si>
-  <si>
-    <t>CPMK5</t>
   </si>
   <si>
     <t>Nilai</t>
@@ -608,14 +593,14 @@
   <dimension ref="A2:H14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:C12"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" customWidth="1"/>
     <col min="4" max="6" width="8.28515625" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.28515625" customWidth="1"/>
@@ -623,7 +608,7 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -635,10 +620,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -648,10 +633,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>16</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -661,7 +646,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -672,7 +657,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -683,7 +668,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
@@ -694,7 +679,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
@@ -705,7 +690,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
@@ -716,7 +701,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
@@ -745,7 +730,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -756,21 +741,11 @@
       <c r="A14" s="7"/>
       <c r="B14" s="12"/>
       <c r="C14" s="11"/>
-      <c r="D14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/backend/modules/import/templates/template-nilai.xlsx
+++ b/backend/modules/import/templates/template-nilai.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\iabee\backend\modules\import\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EAE0FE8-9039-4081-9F03-7DD0621BE755}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9E2EC3-9BBE-420A-83D2-5D47DBA748D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{8D77FA8A-F331-40F0-9C72-F1E9CF6A7C60}"/>
   </bookViews>
@@ -592,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B72AD4E-E665-4320-9E1D-59F2EE0EC394}">
   <dimension ref="A2:H14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
